--- a/fc-typology-data-generator.xlsx
+++ b/fc-typology-data-generator.xlsx
@@ -5,15 +5,16 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/FCA/FCA-grammar-typology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/GitHub/FCA-grammar-typology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB50C77-8E85-B34F-8AEA-DA4AE380577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2542C4B-1BB2-8447-BB63-B0B52AB2529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="23460" windowHeight="14700" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="460" windowWidth="25320" windowHeight="17160" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="grammar.typology" sheetId="1" r:id="rId1"/>
+    <sheet name="typology.data26" sheetId="2" r:id="rId1"/>
+    <sheet name="typology.data25" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +36,130 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kow KURODA</author>
+  </authors>
+  <commentList>
+    <comment ref="Z3" authorId="0" shapeId="0" xr:uid="{900FA349-3A2E-F146-B557-E5045941C0CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+dubious</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{862FFA2C-53A7-6944-B86A-DFD2B964BD0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+on orthography alone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{C4A454B5-3014-CC45-9F4C-2B922427DFAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+on orthography alone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{45FCEF1D-1951-7041-9BB2-FE9909353090}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Only AP</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kow KURODA</author>
@@ -124,7 +249,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Osaka"/>
             <family val="2"/>
             <charset val="128"/>
@@ -134,13 +259,23 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Osaka"/>
             <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-Only AP</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Only AP</t>
         </r>
       </text>
     </comment>
@@ -149,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Chinese</t>
     <phoneticPr fontId="1"/>
@@ -325,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,10 +506,24 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Osaka"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Osaka"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Futura"/>
-      <family val="2"/>
+      <name val="Lucida Sans Unicode"/>
     </font>
   </fonts>
   <fills count="2">
@@ -725,44 +874,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1019,7 +1169,7 @@
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="60">
     <dxf>
       <font>
         <b val="0"/>
@@ -1033,7 +1183,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1058,7 +1208,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1082,7 +1232,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1106,7 +1256,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1144,7 +1294,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1182,7 +1332,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1206,7 +1356,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1230,7 +1380,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1268,7 +1418,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1306,7 +1456,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1344,7 +1494,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1382,7 +1532,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1418,7 +1568,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1442,7 +1592,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1466,7 +1616,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1490,7 +1640,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1514,7 +1664,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1538,7 +1688,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1562,7 +1712,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1586,7 +1736,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1610,7 +1760,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1634,7 +1784,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1658,7 +1808,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1682,7 +1832,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1720,7 +1870,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1744,7 +1894,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1768,7 +1918,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1791,8 +1941,66 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1816,7 +2024,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Futura"/>
+        <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1826,6 +2034,765 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1851,39 +2818,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AA19" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1B90908F-5AC9-6C48-8FF4-C91E0A1D11AB}" name="テーブル13" displayName="テーブル13" ref="A1:AA19" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:AA19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA18">
     <sortCondition descending="1" ref="AA1:AA18"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="24"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="relative_cl_follows_N" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="15"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="O_follows_V" dataDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="requires_Subj" dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="4"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="tense_agreesment" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="check_sum" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{D3ABF45B-D543-7E4C-9397-C85ECA6574A0}" name="Language" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{09743367-B984-024C-966D-BF8AA2634349}" name="has_definite_art" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{3823B82C-81F2-BF45-A062-CFAF77529D79}" name="has_indefinite_art" dataDxfId="24"/>
+    <tableColumn id="27" xr3:uid="{555149E2-3670-E840-9575-7C978D0D415C}" name="has_personal_pro" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{9097E1EA-9342-BB46-8DC4-2B8E102A12AE}" name="N_encodes_plurality" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{BA51F1E9-A156-C94D-91A2-EC5C632AC8A4}" name="N_encodes_class" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{B8D98D93-87E6-D545-A3E2-4C2D4FB2FF1D}" name="N_encodes_case" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{E9D18A52-7717-9149-A18A-445C3347385F}" name="relative_cl_follows_N" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{98AEB7A9-4B79-684D-9AC5-113A1CE5C078}" name="has_postpositions" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{84DD7319-DA1E-BD45-BD21-1A816CE02C7C}" name="has_prepositions" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{2F1F63F2-B88C-4544-B955-75CCC8707D38}" name="A_agrees_w_Nplurality" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{78552D2E-2641-3143-A395-74912DC9F7AC}" name="A_agrees_w_Nclass" dataDxfId="15"/>
+    <tableColumn id="22" xr3:uid="{9906554F-CC00-6744-8801-A052A34374F8}" name="A_agrees_w_Ncase" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{CE6DBD72-8F09-A648-822B-7A3B2934006B}" name="A_follows_N" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{1F45A825-F1FC-4B47-AF8E-736D1E09167E}" name="O_follows_V" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{2EAB8CB7-F5C6-A74F-9F1F-F9F8D828024F}" name="requires_Subj" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{5EDF2C0E-677E-3543-983D-150C05B4D2D1}" name="V_agrees_w_Subj" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{AC520A6D-0D95-2842-B5D0-050A0E65AEA1}" name="V_encodes_plurality" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{15D2D7A9-D93A-F846-BE56-EE15CAC88225}" name="V_encodes_class" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{ABC36E76-08D4-A546-B3A8-D57217FB4475}" name="V_encodes_voice" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{D0443125-F34C-B545-99F0-BD0FE0E8DB67}" name="V_encodes_tense" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{A3CACC34-4668-A542-B2B2-6ADC1DB705AB}" name="V_encodes_person" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{4E7DAD19-D853-EA4B-B25B-B4A8873AC525}" name="V_encodes_aspect" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{488A6971-84AA-2340-A93A-5E2F25EF1136}" name="V_infinitive_is_derived" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{40893E90-C999-FD49-98D1-DDC1157BFE25}" name="V_agrees_w_Obj" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{A644B0CB-F602-1540-A27B-115A286E656F}" name="tense_agreesment" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{F9FFCB13-2E7B-9348-87C1-C3F144A8AF47}" name="check_sum" dataDxfId="0">
+      <calculatedColumnFormula>SUM(B2:Z2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AA19" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:AA19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA18">
+    <sortCondition descending="1" ref="AA1:AA18"/>
+  </sortState>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="56"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="52"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="relative_cl_follows_N" dataDxfId="51"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="49"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="48"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="47"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="O_follows_V" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="requires_Subj" dataDxfId="43"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="40"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="39"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="36"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="tense_agreesment" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="check_sum" dataDxfId="32">
       <calculatedColumnFormula>SUM(B2:Z2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2212,1876 +3220,1876 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1372A3E6-EC57-4C4A-A273-9852A004FE1D}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="5760" ySplit="3540" topLeftCell="A18" activePane="bottomRight"/>
-      <selection sqref="A1:Z19"/>
+      <pane xSplit="5760" ySplit="3540" topLeftCell="M1" activePane="bottomRight"/>
+      <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="AC3" sqref="AC3"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:AA7"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="4.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="4" customWidth="1"/>
-    <col min="9" max="10" width="4.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="4.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="4.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="4.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="4.25" customWidth="1"/>
-    <col min="17" max="18" width="4.875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="5.125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="4.875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="5.25" style="4" customWidth="1"/>
-    <col min="22" max="22" width="5.125" customWidth="1"/>
-    <col min="23" max="24" width="5.25" customWidth="1"/>
-    <col min="25" max="25" width="4.625" customWidth="1"/>
-    <col min="26" max="26" width="4.875" style="4" customWidth="1"/>
-    <col min="27" max="27" width="5" style="4" customWidth="1"/>
-    <col min="28" max="28" width="3.875" style="4" customWidth="1"/>
-    <col min="29" max="29" width="4" style="4" customWidth="1"/>
-    <col min="30" max="30" width="4.75" customWidth="1"/>
-    <col min="31" max="32" width="4" style="4" customWidth="1"/>
-    <col min="33" max="33" width="4.875" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="7.375" style="4"/>
+    <col min="1" max="1" width="9.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="4.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="4.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="5" customWidth="1"/>
+    <col min="9" max="10" width="4.375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="5" customWidth="1"/>
+    <col min="12" max="13" width="4.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="4.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="4.25" style="13" customWidth="1"/>
+    <col min="17" max="18" width="4.875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="5.125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="4.875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="5.25" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.125" style="13" customWidth="1"/>
+    <col min="23" max="24" width="5.25" style="13" customWidth="1"/>
+    <col min="25" max="25" width="4.625" style="13" customWidth="1"/>
+    <col min="26" max="26" width="4.875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="5" style="5" customWidth="1"/>
+    <col min="28" max="28" width="3.875" style="5" customWidth="1"/>
+    <col min="29" max="29" width="4" style="5" customWidth="1"/>
+    <col min="30" max="30" width="4.75" style="13" customWidth="1"/>
+    <col min="31" max="32" width="4" style="5" customWidth="1"/>
+    <col min="33" max="33" width="4.875" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="7.375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="68">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="17">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="5">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
         <f t="shared" ref="AA2:AA19" si="0">SUM(B2:Z2)</f>
         <v>20</v>
       </c>
-      <c r="AD2" s="4"/>
+      <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:30" ht="17">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AD3" s="4"/>
+      <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" ht="17">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="5">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AD4" s="4"/>
+      <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:30" ht="17">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AD5" s="4"/>
+      <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:30" ht="17">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2">
-        <v>1</v>
-      </c>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AD6" s="4"/>
+      <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:30" ht="17">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>1</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AD7" s="4"/>
+      <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:30" ht="17">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6">
-        <v>1</v>
-      </c>
-      <c r="S8" s="6">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6">
-        <v>1</v>
-      </c>
-      <c r="V8" s="6">
-        <v>1</v>
-      </c>
-      <c r="W8" s="6">
-        <v>1</v>
-      </c>
-      <c r="X8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1</v>
+      </c>
+      <c r="X8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:30" ht="17">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6">
-        <v>1</v>
-      </c>
-      <c r="S9" s="6">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
-      <c r="U9" s="6">
-        <v>1</v>
-      </c>
-      <c r="V9" s="6">
-        <v>1</v>
-      </c>
-      <c r="W9" s="6">
-        <v>1</v>
-      </c>
-      <c r="X9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5">
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1</v>
+      </c>
+      <c r="T9" s="8">
+        <v>1</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1</v>
+      </c>
+      <c r="V9" s="8">
+        <v>1</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AD9" s="4"/>
+      <c r="AD9" s="5"/>
     </row>
-    <row r="10" spans="1:30" ht="17">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6">
-        <v>1</v>
-      </c>
-      <c r="S10" s="6">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6">
-        <v>1</v>
-      </c>
-      <c r="U10" s="6">
-        <v>1</v>
-      </c>
-      <c r="V10" s="6">
-        <v>1</v>
-      </c>
-      <c r="W10" s="6">
-        <v>1</v>
-      </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" ht="17">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
-        <v>1</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6">
-        <v>1</v>
-      </c>
-      <c r="X11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="5">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>1</v>
+      </c>
+      <c r="U11" s="8">
+        <v>1</v>
+      </c>
+      <c r="V11" s="8">
+        <v>1</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AD11" s="4"/>
+      <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:30" ht="17">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
-        <v>1</v>
-      </c>
-      <c r="U12" s="6">
-        <v>1</v>
-      </c>
-      <c r="V12" s="6">
-        <v>1</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="5">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1</v>
+      </c>
+      <c r="V12" s="8">
+        <v>1</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AD12" s="4"/>
+      <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:30" ht="17">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6">
-        <v>1</v>
-      </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
-        <v>1</v>
-      </c>
-      <c r="U13" s="6">
-        <v>1</v>
-      </c>
-      <c r="V13" s="6">
-        <v>1</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="5">
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1</v>
+      </c>
+      <c r="U13" s="8">
+        <v>1</v>
+      </c>
+      <c r="V13" s="8">
+        <v>1</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AD13" s="4"/>
+      <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:30" ht="17">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1</v>
-      </c>
-      <c r="O14" s="8">
-        <v>1</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>1</v>
-      </c>
-      <c r="R14" s="8">
-        <v>1</v>
-      </c>
-      <c r="S14" s="8">
-        <v>1</v>
-      </c>
-      <c r="T14" s="8">
-        <v>1</v>
-      </c>
-      <c r="U14" s="8">
-        <v>0</v>
-      </c>
-      <c r="V14" s="8">
-        <v>0</v>
-      </c>
-      <c r="W14" s="8">
-        <v>1</v>
-      </c>
-      <c r="X14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="5">
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="O14" s="11">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>1</v>
+      </c>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
+        <v>1</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AD14" s="4"/>
+      <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:30" ht="17">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AD15" s="4"/>
+      <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:30" ht="17">
-      <c r="A16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>1</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="5">
+    <row r="16" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AD16" s="4"/>
+      <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" ht="17">
-      <c r="A17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="8">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8">
-        <v>1</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="8">
-        <v>0</v>
-      </c>
-      <c r="X17" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="5">
+    <row r="17" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AD17" s="4"/>
+      <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:30" ht="17">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0</v>
-      </c>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="8">
-        <v>0</v>
-      </c>
-      <c r="T18" s="8">
-        <v>1</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="8">
-        <v>0</v>
-      </c>
-      <c r="X18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="5">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <v>0</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="11">
+        <v>0</v>
+      </c>
+      <c r="X18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AD18" s="4"/>
+      <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" ht="17">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>1</v>
-      </c>
-      <c r="R19" s="8">
-        <v>1</v>
-      </c>
-      <c r="S19" s="8">
-        <v>0</v>
-      </c>
-      <c r="T19" s="8">
-        <v>1</v>
-      </c>
-      <c r="U19" s="2">
-        <v>1</v>
-      </c>
-      <c r="V19" s="2">
-        <v>1</v>
-      </c>
-      <c r="W19" s="8">
-        <v>0</v>
-      </c>
-      <c r="X19" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>1</v>
+      </c>
+      <c r="R19" s="11">
+        <v>1</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AD19" s="4"/>
+      <c r="AD19" s="5"/>
     </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <f>SUM(B$2:B$19)</f>
         <v>7</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <f t="shared" ref="C21:AA21" si="1">SUM(C2:C19)</f>
         <v>5</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AA21" s="5">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <f t="shared" ref="B22:AA22" si="2">AVERAGE(B$2:B$19)</f>
         <v>0.3888888888888889</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <f t="shared" si="2"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <f t="shared" si="2"/>
         <v>0.72222222222222221</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="5">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="5">
         <f t="shared" si="2"/>
         <v>0.72222222222222221</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="5">
         <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="5">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="5">
         <f t="shared" si="2"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="5">
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="5">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="5">
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="5">
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="5">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="5">
         <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="5">
         <f t="shared" si="2"/>
         <v>0.72222222222222221</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="5">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22" s="5">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Y22" s="5">
         <f t="shared" si="2"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="Z22" s="5">
         <f t="shared" si="2"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA22" s="5">
         <f t="shared" si="2"/>
         <v>13.777777777777779</v>
       </c>
@@ -4089,7 +5097,1898 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="Q2:Z19 B2:O19">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="&quot;&quot;">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="&quot;&quot;">
+      <formula>NOT(ISERROR(SEARCH("""""",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD22"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="5760" ySplit="3540" topLeftCell="M1" activePane="bottomLeft"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="AC3" sqref="AC3"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:AA7"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="4.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="4.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="5" customWidth="1"/>
+    <col min="9" max="10" width="4.375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="5" customWidth="1"/>
+    <col min="12" max="13" width="4.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="4.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="4.25" style="13" customWidth="1"/>
+    <col min="17" max="18" width="4.875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="5.125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="4.875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="5.25" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.125" style="13" customWidth="1"/>
+    <col min="23" max="24" width="5.25" style="13" customWidth="1"/>
+    <col min="25" max="25" width="4.625" style="13" customWidth="1"/>
+    <col min="26" max="26" width="4.875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="5" style="5" customWidth="1"/>
+    <col min="28" max="28" width="3.875" style="5" customWidth="1"/>
+    <col min="29" max="29" width="4" style="5" customWidth="1"/>
+    <col min="30" max="30" width="4.75" style="13" customWidth="1"/>
+    <col min="31" max="32" width="4" style="5" customWidth="1"/>
+    <col min="33" max="33" width="4.875" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="7.375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <f t="shared" ref="AA2:AA19" si="0">SUM(B2:Z2)</f>
+        <v>20</v>
+      </c>
+      <c r="AD2" s="5"/>
+    </row>
+    <row r="3" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AD3" s="5"/>
+    </row>
+    <row r="4" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AD4" s="5"/>
+    </row>
+    <row r="5" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AD5" s="5"/>
+    </row>
+    <row r="6" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AD6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AD7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1</v>
+      </c>
+      <c r="X8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AD8" s="5"/>
+    </row>
+    <row r="9" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1</v>
+      </c>
+      <c r="T9" s="8">
+        <v>1</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1</v>
+      </c>
+      <c r="V9" s="8">
+        <v>1</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AD9" s="5"/>
+    </row>
+    <row r="10" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AD10" s="5"/>
+    </row>
+    <row r="11" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>1</v>
+      </c>
+      <c r="U11" s="8">
+        <v>1</v>
+      </c>
+      <c r="V11" s="8">
+        <v>1</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AD11" s="5"/>
+    </row>
+    <row r="12" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1</v>
+      </c>
+      <c r="V12" s="8">
+        <v>1</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AD12" s="5"/>
+    </row>
+    <row r="13" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1</v>
+      </c>
+      <c r="U13" s="8">
+        <v>1</v>
+      </c>
+      <c r="V13" s="8">
+        <v>1</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AD13" s="5"/>
+    </row>
+    <row r="14" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="O14" s="11">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>1</v>
+      </c>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
+        <v>1</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AD14" s="5"/>
+    </row>
+    <row r="15" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AD15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AD16" s="5"/>
+    </row>
+    <row r="17" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AD17" s="5"/>
+    </row>
+    <row r="18" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <v>0</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="11">
+        <v>0</v>
+      </c>
+      <c r="X18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AD18" s="5"/>
+    </row>
+    <row r="19" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>1</v>
+      </c>
+      <c r="R19" s="11">
+        <v>1</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AD19" s="5"/>
+    </row>
+    <row r="21" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <f>SUM(B$2:B$19)</f>
+        <v>7</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" ref="C21:AA21" si="1">SUM(C2:C19)</f>
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T21" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="U21" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="W21" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="X21" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Y21" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z21" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA21" s="5">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" ref="B22:AA22" si="2">AVERAGE(B$2:B$19)</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="W22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Z22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AA22" s="5">
+        <f t="shared" si="2"/>
+        <v>13.777777777777779</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="Q2:Z19 B2:O19">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="&quot;&quot;">
       <formula>NOT(ISERROR(SEARCH("""""",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/fc-typology-data-generator.xlsx
+++ b/fc-typology-data-generator.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/GitHub/FCA-grammar-typology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2542C4B-1BB2-8447-BB63-B0B52AB2529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D55AAEE-53D8-3A4A-A46D-878805E2DD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8560" yWindow="460" windowWidth="25320" windowHeight="17160" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="typology.data26" sheetId="2" r:id="rId1"/>
-    <sheet name="typology.data25" sheetId="1" r:id="rId2"/>
+    <sheet name="typology.data25" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,130 +35,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Kow KURODA</author>
-  </authors>
-  <commentList>
-    <comment ref="Z3" authorId="0" shapeId="0" xr:uid="{900FA349-3A2E-F146-B557-E5045941C0CD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Osaka"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Kow KURODA:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Osaka"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-dubious</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{862FFA2C-53A7-6944-B86A-DFD2B964BD0B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Osaka"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Kow KURODA:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Osaka"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-on orthography alone</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{C4A454B5-3014-CC45-9F4C-2B922427DFAF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Osaka"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Kow KURODA:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Osaka"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-on orthography alone</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{45FCEF1D-1951-7041-9BB2-FE9909353090}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Osaka"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Kow KURODA:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Osaka"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Osaka"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Only AP</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kow KURODA</author>
@@ -284,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Chinese</t>
     <phoneticPr fontId="1"/>
@@ -1169,7 +1044,17 @@
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1941,64 +1826,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2035,775 +1862,6 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -2818,80 +1876,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1B90908F-5AC9-6C48-8FF4-C91E0A1D11AB}" name="テーブル13" displayName="テーブル13" ref="A1:AA19" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AA19" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:AA19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA18">
     <sortCondition descending="1" ref="AA1:AA18"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{D3ABF45B-D543-7E4C-9397-C85ECA6574A0}" name="Language" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{09743367-B984-024C-966D-BF8AA2634349}" name="has_definite_art" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{3823B82C-81F2-BF45-A062-CFAF77529D79}" name="has_indefinite_art" dataDxfId="24"/>
-    <tableColumn id="27" xr3:uid="{555149E2-3670-E840-9575-7C978D0D415C}" name="has_personal_pro" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{9097E1EA-9342-BB46-8DC4-2B8E102A12AE}" name="N_encodes_plurality" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{BA51F1E9-A156-C94D-91A2-EC5C632AC8A4}" name="N_encodes_class" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{B8D98D93-87E6-D545-A3E2-4C2D4FB2FF1D}" name="N_encodes_case" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{E9D18A52-7717-9149-A18A-445C3347385F}" name="relative_cl_follows_N" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{98AEB7A9-4B79-684D-9AC5-113A1CE5C078}" name="has_postpositions" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{84DD7319-DA1E-BD45-BD21-1A816CE02C7C}" name="has_prepositions" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{2F1F63F2-B88C-4544-B955-75CCC8707D38}" name="A_agrees_w_Nplurality" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{78552D2E-2641-3143-A395-74912DC9F7AC}" name="A_agrees_w_Nclass" dataDxfId="15"/>
-    <tableColumn id="22" xr3:uid="{9906554F-CC00-6744-8801-A052A34374F8}" name="A_agrees_w_Ncase" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{CE6DBD72-8F09-A648-822B-7A3B2934006B}" name="A_follows_N" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{1F45A825-F1FC-4B47-AF8E-736D1E09167E}" name="O_follows_V" dataDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{2EAB8CB7-F5C6-A74F-9F1F-F9F8D828024F}" name="requires_Subj" dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{5EDF2C0E-677E-3543-983D-150C05B4D2D1}" name="V_agrees_w_Subj" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{AC520A6D-0D95-2842-B5D0-050A0E65AEA1}" name="V_encodes_plurality" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{15D2D7A9-D93A-F846-BE56-EE15CAC88225}" name="V_encodes_class" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{ABC36E76-08D4-A546-B3A8-D57217FB4475}" name="V_encodes_voice" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{D0443125-F34C-B545-99F0-BD0FE0E8DB67}" name="V_encodes_tense" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{A3CACC34-4668-A542-B2B2-6ADC1DB705AB}" name="V_encodes_person" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{4E7DAD19-D853-EA4B-B25B-B4A8873AC525}" name="V_encodes_aspect" dataDxfId="4"/>
-    <tableColumn id="26" xr3:uid="{488A6971-84AA-2340-A93A-5E2F25EF1136}" name="V_infinitive_is_derived" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{40893E90-C999-FD49-98D1-DDC1157BFE25}" name="V_agrees_w_Obj" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{A644B0CB-F602-1540-A27B-115A286E656F}" name="tense_agreesment" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{F9FFCB13-2E7B-9348-87C1-C3F144A8AF47}" name="check_sum" dataDxfId="0">
-      <calculatedColumnFormula>SUM(B2:Z2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AA19" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:AA19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA18">
-    <sortCondition descending="1" ref="AA1:AA18"/>
-  </sortState>
-  <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="56"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="52"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="relative_cl_follows_N" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="47"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="O_follows_V" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="requires_Subj" dataDxfId="43"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="39"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="36"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="35"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="tense_agreesment" dataDxfId="33"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="check_sum" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="25"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="relative_cl_follows_N" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="16"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="O_follows_V" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="requires_Subj" dataDxfId="12"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="tense_agreesment" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="check_sum" dataDxfId="1">
       <calculatedColumnFormula>SUM(B2:Z2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3220,7 +2237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1372A3E6-EC57-4C4A-A273-9852A004FE1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -3228,7 +2245,7 @@
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="AC3" sqref="AC3"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7:AA7"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
@@ -5097,1898 +4114,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="Q2:Z19 B2:O19">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="&quot;&quot;">
-      <formula>NOT(ISERROR(SEARCH("""""",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD22"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="5760" ySplit="3540" topLeftCell="M1" activePane="bottomLeft"/>
-      <selection sqref="A1:XFD1048576"/>
-      <selection pane="topRight" activeCell="AC3" sqref="AC3"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:AA7"/>
-      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="4.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="4.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="5" customWidth="1"/>
-    <col min="9" max="10" width="4.375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="5" customWidth="1"/>
-    <col min="12" max="13" width="4.625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="4.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="4.625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="4.25" style="13" customWidth="1"/>
-    <col min="17" max="18" width="4.875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="5.125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="4.875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="5.25" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.125" style="13" customWidth="1"/>
-    <col min="23" max="24" width="5.25" style="13" customWidth="1"/>
-    <col min="25" max="25" width="4.625" style="13" customWidth="1"/>
-    <col min="26" max="26" width="4.875" style="5" customWidth="1"/>
-    <col min="27" max="27" width="5" style="5" customWidth="1"/>
-    <col min="28" max="28" width="3.875" style="5" customWidth="1"/>
-    <col min="29" max="29" width="4" style="5" customWidth="1"/>
-    <col min="30" max="30" width="4.75" style="13" customWidth="1"/>
-    <col min="31" max="32" width="4" style="5" customWidth="1"/>
-    <col min="33" max="33" width="4.875" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="7.375" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="2">
-        <f t="shared" ref="AA2:AA19" si="0">SUM(B2:Z2)</f>
-        <v>20</v>
-      </c>
-      <c r="AD2" s="5"/>
-    </row>
-    <row r="3" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AD3" s="5"/>
-    </row>
-    <row r="4" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AD4" s="5"/>
-    </row>
-    <row r="5" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AD5" s="5"/>
-    </row>
-    <row r="6" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AD6" s="5"/>
-    </row>
-    <row r="7" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AD7" s="5"/>
-    </row>
-    <row r="8" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>1</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>1</v>
-      </c>
-      <c r="R8" s="8">
-        <v>1</v>
-      </c>
-      <c r="S8" s="8">
-        <v>1</v>
-      </c>
-      <c r="T8" s="8">
-        <v>1</v>
-      </c>
-      <c r="U8" s="8">
-        <v>1</v>
-      </c>
-      <c r="V8" s="8">
-        <v>1</v>
-      </c>
-      <c r="W8" s="8">
-        <v>1</v>
-      </c>
-      <c r="X8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AD8" s="5"/>
-    </row>
-    <row r="9" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>1</v>
-      </c>
-      <c r="R9" s="8">
-        <v>1</v>
-      </c>
-      <c r="S9" s="8">
-        <v>1</v>
-      </c>
-      <c r="T9" s="8">
-        <v>1</v>
-      </c>
-      <c r="U9" s="8">
-        <v>1</v>
-      </c>
-      <c r="V9" s="8">
-        <v>1</v>
-      </c>
-      <c r="W9" s="8">
-        <v>1</v>
-      </c>
-      <c r="X9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AD9" s="5"/>
-    </row>
-    <row r="10" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>1</v>
-      </c>
-      <c r="R10" s="8">
-        <v>1</v>
-      </c>
-      <c r="S10" s="8">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8">
-        <v>1</v>
-      </c>
-      <c r="U10" s="8">
-        <v>1</v>
-      </c>
-      <c r="V10" s="8">
-        <v>1</v>
-      </c>
-      <c r="W10" s="8">
-        <v>1</v>
-      </c>
-      <c r="X10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AD10" s="5"/>
-    </row>
-    <row r="11" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>1</v>
-      </c>
-      <c r="R11" s="8">
-        <v>1</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
-        <v>1</v>
-      </c>
-      <c r="U11" s="8">
-        <v>1</v>
-      </c>
-      <c r="V11" s="8">
-        <v>1</v>
-      </c>
-      <c r="W11" s="8">
-        <v>1</v>
-      </c>
-      <c r="X11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AD11" s="5"/>
-    </row>
-    <row r="12" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>1</v>
-      </c>
-      <c r="U12" s="8">
-        <v>1</v>
-      </c>
-      <c r="V12" s="8">
-        <v>1</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AD12" s="5"/>
-    </row>
-    <row r="13" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>1</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>1</v>
-      </c>
-      <c r="R13" s="8">
-        <v>1</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <v>1</v>
-      </c>
-      <c r="U13" s="8">
-        <v>1</v>
-      </c>
-      <c r="V13" s="8">
-        <v>1</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0</v>
-      </c>
-      <c r="X13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AD13" s="5"/>
-    </row>
-    <row r="14" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
-        <v>1</v>
-      </c>
-      <c r="P14" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>1</v>
-      </c>
-      <c r="R14" s="11">
-        <v>1</v>
-      </c>
-      <c r="S14" s="11">
-        <v>1</v>
-      </c>
-      <c r="T14" s="11">
-        <v>1</v>
-      </c>
-      <c r="U14" s="11">
-        <v>0</v>
-      </c>
-      <c r="V14" s="11">
-        <v>0</v>
-      </c>
-      <c r="W14" s="11">
-        <v>1</v>
-      </c>
-      <c r="X14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AD14" s="5"/>
-    </row>
-    <row r="15" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1</v>
-      </c>
-      <c r="U15" s="1">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AD15" s="5"/>
-    </row>
-    <row r="16" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AD16" s="5"/>
-    </row>
-    <row r="17" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>0</v>
-      </c>
-      <c r="R17" s="11">
-        <v>0</v>
-      </c>
-      <c r="S17" s="11">
-        <v>0</v>
-      </c>
-      <c r="T17" s="11">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0</v>
-      </c>
-      <c r="X17" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <v>0</v>
-      </c>
-      <c r="S18" s="11">
-        <v>0</v>
-      </c>
-      <c r="T18" s="11">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="11">
-        <v>0</v>
-      </c>
-      <c r="X18" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AD18" s="5"/>
-    </row>
-    <row r="19" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>1</v>
-      </c>
-      <c r="R19" s="11">
-        <v>1</v>
-      </c>
-      <c r="S19" s="11">
-        <v>0</v>
-      </c>
-      <c r="T19" s="11">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1">
-        <v>1</v>
-      </c>
-      <c r="W19" s="11">
-        <v>0</v>
-      </c>
-      <c r="X19" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AD19" s="5"/>
-    </row>
-    <row r="21" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5">
-        <f>SUM(B$2:B$19)</f>
-        <v>7</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" ref="C21:AA21" si="1">SUM(C2:C19)</f>
-        <v>5</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="P21" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="R21" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="S21" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="T21" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="U21" s="5">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="V21" s="5">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="W21" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="X21" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Y21" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Z21" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AA21" s="5">
-        <f t="shared" si="1"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5">
-        <f t="shared" ref="B22:AA22" si="2">AVERAGE(B$2:B$19)</f>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="M22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="N22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Q22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="R22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="S22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="T22" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="V22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="W22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="X22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Y22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="Z22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="AA22" s="5">
-        <f t="shared" si="2"/>
-        <v>13.777777777777779</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="Q2:Z19 B2:O19">
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="&quot;&quot;">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="&quot;&quot;">
       <formula>NOT(ISERROR(SEARCH("""""",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
